--- a/application/output_max_withoutMP_min_default_kapp/compiled_results.xlsx
+++ b/application/output_max_withoutMP_min_default_kapp/compiled_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:AC30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,26 +575,6 @@
           <t>RBA: yield</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>yield on minimal media at 0.0% exp. growth</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>FBA: yield on minimal media at 0.0% exp. growth</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>RBA: yield on minimal media at 1.0% exp. growth</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>RBA: yield on minimal media at 0.0% exp. growth</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -616,25 +596,25 @@
         <v>76.09</v>
       </c>
       <c r="E2" t="n">
-        <v>17.81382211868563</v>
+        <v>17.81382212023962</v>
       </c>
       <c r="F2" t="n">
-        <v>0.569551693020389</v>
+        <v>0.5695516930700739</v>
       </c>
       <c r="G2" t="n">
         <v>-13.21</v>
       </c>
       <c r="H2" t="n">
-        <v>7.603274750982186</v>
+        <v>7.603274750981975</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2430953884050908</v>
+        <v>0.243095388405084</v>
       </c>
       <c r="J2" t="n">
         <v>-13.21</v>
       </c>
       <c r="K2" t="n">
-        <v>0.426818832046538</v>
+        <v>0.4268188320092925</v>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
@@ -660,16 +640,12 @@
       </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
-        <v>7.603274750982186</v>
+        <v>7.603274750981975</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="n">
-        <v>0.2430953884050908</v>
-      </c>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
+        <v>0.243095388405084</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -691,25 +667,25 @@
         <v>122.16</v>
       </c>
       <c r="E3" t="n">
-        <v>2.555301938109797</v>
+        <v>2.555301936214222</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3122195099690078</v>
+        <v>0.3122195089297514</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.549610203628807</v>
+        <v>-5.549610217984472</v>
       </c>
       <c r="H3" t="n">
-        <v>1.677292248506137</v>
+        <v>1.677284484134693</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08609664251008942</v>
+        <v>0.08609624395920293</v>
       </c>
       <c r="J3" t="n">
         <v>-13.21</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2757567665090363</v>
+        <v>0.2757554909183281</v>
       </c>
       <c r="L3" t="n">
         <v>0.08</v>
@@ -737,16 +713,12 @@
       </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
-        <v>1.677292248506137</v>
+        <v>1.677284484134693</v>
       </c>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="n">
-        <v>0.08609664251008942</v>
-      </c>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
+        <v>0.08609624395920293</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -776,18 +748,10 @@
       <c r="G4" t="n">
         <v>-5.545419566892341</v>
       </c>
-      <c r="H4" t="n">
-        <v>2.782384540012428</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.1053159090552506</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1582689694547692</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>0.13</v>
       </c>
@@ -799,31 +763,15 @@
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="n">
-        <v>2.782384540012428</v>
-      </c>
+      <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="n">
-        <v>0.1053159090552506</v>
-      </c>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -853,18 +801,10 @@
       <c r="G5" t="n">
         <v>-5.544759808667549</v>
       </c>
-      <c r="H5" t="n">
-        <v>1.980862282753756</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.07497752701736145</v>
-      </c>
-      <c r="J5" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.1002437533622743</v>
-      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>0.14</v>
       </c>
@@ -876,31 +816,15 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="n">
-        <v>1.980862282753756</v>
-      </c>
+      <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="n">
-        <v>0.07497752701736145</v>
-      </c>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -930,18 +854,10 @@
       <c r="G6" t="n">
         <v>-5.545419566892341</v>
       </c>
-      <c r="H6" t="n">
-        <v>2.782384540012428</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.1053159090552506</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.1582689694547692</v>
-      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>0.13</v>
       </c>
@@ -953,31 +869,15 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="n">
-        <v>2.782384540012428</v>
-      </c>
+      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="n">
-        <v>0.1053159090552506</v>
-      </c>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1007,18 +907,10 @@
       <c r="G7" t="n">
         <v>-5.544759808667549</v>
       </c>
-      <c r="H7" t="n">
-        <v>1.980862282753756</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.07497752701736145</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1002437533622743</v>
-      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>0.14</v>
       </c>
@@ -1030,31 +922,15 @@
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="n">
-        <v>1.980862282753756</v>
-      </c>
+      <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="n">
-        <v>0.07497752701736145</v>
-      </c>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1085,16 +961,16 @@
         <v>-5.549441423005486</v>
       </c>
       <c r="H8" t="n">
-        <v>1.508393595748058</v>
+        <v>1.508393595734358</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08690249841046005</v>
+        <v>0.08690249840967075</v>
       </c>
       <c r="J8" t="n">
         <v>-13.21</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1888877319150266</v>
+        <v>0.188887731913311</v>
       </c>
       <c r="L8" t="n">
         <v>0.07000000000000001</v>
@@ -1122,16 +998,12 @@
       </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
-        <v>1.508393595748058</v>
+        <v>1.508393595734358</v>
       </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="n">
-        <v>0.08690249841046005</v>
-      </c>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
+        <v>0.08690249840967075</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1153,25 +1025,25 @@
         <v>234.33</v>
       </c>
       <c r="E9" t="n">
-        <v>2.844697655376329</v>
+        <v>2.844697659175361</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2800995809453723</v>
+        <v>0.2800995813194391</v>
       </c>
       <c r="G9" t="n">
         <v>-13.21</v>
       </c>
       <c r="H9" t="n">
-        <v>0.303006696869241</v>
+        <v>0.303006696975616</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0298351737508245</v>
+        <v>0.02983517376129858</v>
       </c>
       <c r="J9" t="n">
         <v>-13.21</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1065163098428314</v>
+        <v>0.1065163097379753</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -1197,16 +1069,12 @@
       </c>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="n">
-        <v>0.303006696869241</v>
+        <v>0.303006696975616</v>
       </c>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="n">
-        <v>0.0298351737508245</v>
-      </c>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
+        <v>0.02983517376129858</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1237,16 +1105,16 @@
         <v>-5.547686668594033</v>
       </c>
       <c r="H10" t="n">
-        <v>4.964587466408677</v>
+        <v>4.964587119160285</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1879978148270952</v>
+        <v>0.1879978016775758</v>
       </c>
       <c r="J10" t="n">
         <v>-13.21</v>
       </c>
       <c r="K10" t="n">
-        <v>0.416259797319335</v>
+        <v>0.4162597682040166</v>
       </c>
       <c r="L10" t="n">
         <v>0.11</v>
@@ -1274,16 +1142,12 @@
       </c>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
-        <v>4.964587466408677</v>
+        <v>4.964587119160285</v>
       </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="n">
-        <v>0.1879978148270952</v>
-      </c>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
+        <v>0.1879978016775758</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1305,25 +1169,25 @@
         <v>74.12</v>
       </c>
       <c r="E11" t="n">
-        <v>4.161856555785725</v>
+        <v>4.161856555785747</v>
       </c>
       <c r="F11" t="n">
-        <v>0.308528169914302</v>
+        <v>0.3085281699143037</v>
       </c>
       <c r="G11" t="n">
         <v>-5.549820853803197</v>
       </c>
       <c r="H11" t="n">
-        <v>1.643145652115875</v>
+        <v>1.643125404324842</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05117524427556369</v>
+        <v>0.0511746136646067</v>
       </c>
       <c r="J11" t="n">
         <v>-13.21</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1658689522249405</v>
+        <v>0.1658669082917806</v>
       </c>
       <c r="L11" t="n">
         <v>0.04</v>
@@ -1351,16 +1215,12 @@
       </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="n">
-        <v>1.643145652115875</v>
+        <v>1.643125404324842</v>
       </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="n">
-        <v>0.05117524427556369</v>
-      </c>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
+        <v>0.0511746136646067</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1385,22 +1245,22 @@
         <v>12.48937108880216</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7667243171293747</v>
+        <v>0.7667243171293748</v>
       </c>
       <c r="G12" t="n">
         <v>-13.21</v>
       </c>
       <c r="H12" t="n">
-        <v>1.484989845023696</v>
+        <v>1.484989845155429</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09116374369648499</v>
+        <v>0.0911637437045721</v>
       </c>
       <c r="J12" t="n">
         <v>-13.21</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1189002900518444</v>
+        <v>0.118900290062392</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1426,16 +1286,12 @@
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
-        <v>1.484989845023696</v>
+        <v>1.484989845155429</v>
       </c>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="n">
-        <v>0.09116374369648499</v>
-      </c>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
+        <v>0.0911637437045721</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1465,18 +1321,10 @@
       <c r="G13" t="n">
         <v>-5.548570274707247</v>
       </c>
-      <c r="H13" t="n">
-        <v>1.253882440223427</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.08595919709288039</v>
-      </c>
-      <c r="J13" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.2016467360444609</v>
-      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>0.15</v>
       </c>
@@ -1488,31 +1336,15 @@
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
-      <c r="W13" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="n">
-        <v>1.253882440223427</v>
-      </c>
+      <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="n">
-        <v>0.08595919709288039</v>
-      </c>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1534,26 +1366,18 @@
         <v>256.4</v>
       </c>
       <c r="E14" t="n">
-        <v>1.016994536421403</v>
+        <v>1.016994536421399</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2607839207207038</v>
+        <v>0.2607839207207027</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.550180402242264</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.370652195996508</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.03993310224313486</v>
-      </c>
-      <c r="J14" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1531271641778202</v>
-      </c>
+        <v>-5.550180402242267</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>0.1</v>
       </c>
@@ -1565,31 +1389,15 @@
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
-      <c r="W14" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="n">
-        <v>0.370652195996508</v>
-      </c>
+      <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="n">
-        <v>0.03993310224313486</v>
-      </c>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1611,25 +1419,25 @@
         <v>242.44</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9874314782806415</v>
+        <v>0.9874314721363102</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2393940695205564</v>
+        <v>0.239394068030912</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.550717505065707</v>
+        <v>-5.55071750506583</v>
       </c>
       <c r="H15" t="n">
-        <v>0.400442259543859</v>
+        <v>0.400445192664307</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04079365609768412</v>
+        <v>0.04079395489908182</v>
       </c>
       <c r="J15" t="n">
         <v>-13.21</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1704037872758633</v>
+        <v>0.1704050364932779</v>
       </c>
       <c r="L15" t="n">
         <v>0.005</v>
@@ -1657,16 +1465,12 @@
       </c>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="n">
-        <v>0.400442259543859</v>
+        <v>0.400445192664307</v>
       </c>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="n">
-        <v>0.04079365609768412</v>
-      </c>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
+        <v>0.04079395489908182</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1696,18 +1500,10 @@
       <c r="G16" t="n">
         <v>-5.549184128068436</v>
       </c>
-      <c r="H16" t="n">
-        <v>1.203868573870632</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.03749410057725026</v>
-      </c>
-      <c r="J16" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.1079109946566728</v>
-      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>0.06</v>
       </c>
@@ -1719,31 +1515,15 @@
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
-      <c r="W16" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="n">
-        <v>1.203868573870632</v>
-      </c>
+      <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="n">
-        <v>0.03749410057725026</v>
-      </c>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1773,18 +1553,10 @@
       <c r="G17" t="n">
         <v>-5.516810175715775</v>
       </c>
-      <c r="H17" t="n">
-        <v>14.73768830499428</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.5515809661594826</v>
-      </c>
-      <c r="J17" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.6946571304851238</v>
-      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>0.6899999999999999</v>
       </c>
@@ -1796,31 +1568,15 @@
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
-      <c r="W17" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="n">
-        <v>14.73768830499428</v>
-      </c>
+      <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="n">
-        <v>0.5515809661594826</v>
-      </c>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1842,25 +1598,25 @@
         <v>140.09</v>
       </c>
       <c r="E18" t="n">
-        <v>3.836460770451315</v>
+        <v>3.836460797193417</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5375941614562846</v>
+        <v>0.5375941652045984</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.549254244910345</v>
+        <v>-5.549254244899956</v>
       </c>
       <c r="H18" t="n">
-        <v>1.686107340195298</v>
+        <v>1.686107340195276</v>
       </c>
       <c r="I18" t="n">
-        <v>0.09925235175857905</v>
+        <v>0.09925235175857776</v>
       </c>
       <c r="J18" t="n">
         <v>-13.21</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1846231951063515</v>
+        <v>0.184623193819085</v>
       </c>
       <c r="L18" t="n">
         <v>0.07000000000000001</v>
@@ -1888,16 +1644,12 @@
       </c>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="n">
-        <v>1.686107340195298</v>
+        <v>1.686107340195276</v>
       </c>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="n">
-        <v>0.09925235175857905</v>
-      </c>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
+        <v>0.09925235175857776</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1919,25 +1671,25 @@
         <v>272.25</v>
       </c>
       <c r="E19" t="n">
-        <v>3.969093042076502</v>
+        <v>3.969093036182585</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4540541189919563</v>
+        <v>0.4540541183177073</v>
       </c>
       <c r="G19" t="n">
         <v>-13.21</v>
       </c>
       <c r="H19" t="n">
-        <v>0.400094572882544</v>
+        <v>0.400094572886362</v>
       </c>
       <c r="I19" t="n">
-        <v>0.04576979851009124</v>
+        <v>0.04576979851052801</v>
       </c>
       <c r="J19" t="n">
         <v>-13.21</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1008025180163646</v>
+        <v>0.1008025181670135</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1963,16 +1715,12 @@
       </c>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="n">
-        <v>0.400094572882544</v>
+        <v>0.400094572886362</v>
       </c>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="n">
-        <v>0.04576979851009124</v>
-      </c>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
+        <v>0.04576979851052801</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2002,18 +1750,10 @@
       <c r="G20" t="n">
         <v>-0.332925</v>
       </c>
-      <c r="H20" t="n">
-        <v>0.100790276286722</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.2374729155094452</v>
-      </c>
-      <c r="J20" t="n">
-        <v>-0.332925</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1.008269369463034</v>
-      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
@@ -2043,35 +1783,15 @@
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="n">
-        <v>0.135358218584754</v>
-      </c>
+      <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
-      <c r="W20" t="n">
-        <v>-0.332925</v>
-      </c>
+      <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="n">
-        <v>0.100790276286722</v>
-      </c>
+      <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="n">
-        <v>0.2374729155094452</v>
-      </c>
-      <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="n">
-        <v>0.135743300793755</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0.078150819418957</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0.08307504798705299</v>
-      </c>
+      <c r="AC20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2093,26 +1813,18 @@
         <v>242.44</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1141673830273941</v>
+        <v>0.1141673830273931</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2428832021681819</v>
+        <v>0.2428832021681798</v>
       </c>
       <c r="G21" t="n">
         <v>-0.332925</v>
       </c>
-      <c r="H21" t="n">
-        <v>0.115079869491406</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.2448244539376226</v>
-      </c>
-      <c r="J21" t="n">
-        <v>-0.332925</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1.007992532015847</v>
-      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
@@ -2138,35 +1850,15 @@
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="n">
-        <v>0.148477553061659</v>
-      </c>
+      <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
-      <c r="W21" t="n">
-        <v>-0.332925</v>
-      </c>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="n">
-        <v>0.115079869491406</v>
-      </c>
+      <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="n">
-        <v>0.2448244539376226</v>
-      </c>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="n">
-        <v>0.148839083264092</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0.079358646518538</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0.084589254540941</v>
-      </c>
+      <c r="AC21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2188,26 +1880,18 @@
         <v>103.1</v>
       </c>
       <c r="E22" t="n">
-        <v>4.826633115573244</v>
+        <v>4.826633115573516</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4979383117364437</v>
+        <v>0.497938311736471</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.547262026771106</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1.443972089041542</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.06255555992283472</v>
-      </c>
-      <c r="J22" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.1256291360764887</v>
-      </c>
+        <v>-5.547262026771114</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>0.13</v>
       </c>
@@ -2219,31 +1903,15 @@
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
-      <c r="W22" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="n">
-        <v>1.443972089041542</v>
-      </c>
+      <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="n">
-        <v>0.06255555992283472</v>
-      </c>
-      <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2274,16 +1942,16 @@
         <v>-13.21</v>
       </c>
       <c r="H23" t="n">
-        <v>0.203124484767071</v>
+        <v>0.203122931650805</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02811475629451245</v>
+        <v>0.02811454132542408</v>
       </c>
       <c r="J23" t="n">
         <v>-13.21</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0808892261623313</v>
+        <v>0.08088860767277281</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -2309,16 +1977,12 @@
       </c>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="n">
-        <v>0.203124484767071</v>
+        <v>0.203122931650805</v>
       </c>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="n">
-        <v>0.02811475629451245</v>
-      </c>
-      <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="inlineStr"/>
+        <v>0.02811454132542408</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2340,25 +2004,25 @@
         <v>228.24</v>
       </c>
       <c r="E24" t="n">
-        <v>1.465955759336204</v>
+        <v>1.465955758988919</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3345898406096754</v>
+        <v>0.3345898405304117</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.550743282537632</v>
+        <v>-5.550743282537622</v>
       </c>
       <c r="H24" t="n">
-        <v>0.400094572755717</v>
+        <v>0.40009457288279</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03837097817679252</v>
+        <v>0.03837097818897942</v>
       </c>
       <c r="J24" t="n">
         <v>-13.21</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1146806433419334</v>
+        <v>0.1146806434055244</v>
       </c>
       <c r="L24" t="n">
         <v>0.0002</v>
@@ -2386,16 +2050,12 @@
       </c>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="n">
-        <v>0.400094572755717</v>
+        <v>0.40009457288279</v>
       </c>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="n">
-        <v>0.03837097817679252</v>
-      </c>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr"/>
+        <v>0.03837097818897942</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2426,16 +2086,16 @@
         <v>-5.550726324289684</v>
       </c>
       <c r="H25" t="n">
-        <v>0.273747905701509</v>
+        <v>0.273747905701475</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02833111512552594</v>
+        <v>0.02833111512552243</v>
       </c>
       <c r="J25" t="n">
         <v>-13.21</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1030604268002173</v>
+        <v>0.1030604268002045</v>
       </c>
       <c r="L25" t="n">
         <v>0.003</v>
@@ -2463,16 +2123,12 @@
       </c>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="n">
-        <v>0.273747905701509</v>
+        <v>0.273747905701475</v>
       </c>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="n">
-        <v>0.02833111512552594</v>
-      </c>
-      <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr"/>
+        <v>0.02833111512552243</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2503,16 +2159,16 @@
         <v>-13.21</v>
       </c>
       <c r="H26" t="n">
-        <v>1.894526122141673</v>
+        <v>1.894526122141629</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1386348855850593</v>
+        <v>0.1386348855850561</v>
       </c>
       <c r="J26" t="n">
         <v>-13.21</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1947968203719789</v>
+        <v>0.1947968203719743</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
@@ -2538,16 +2194,12 @@
       </c>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="n">
-        <v>1.894526122141673</v>
+        <v>1.894526122141629</v>
       </c>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="n">
-        <v>0.1386348855850593</v>
-      </c>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr"/>
+        <v>0.1386348855850561</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2577,18 +2229,10 @@
       <c r="G27" t="n">
         <v>-0.332925</v>
       </c>
-      <c r="H27" t="n">
-        <v>0.102247504860163</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.2427007657977054</v>
-      </c>
-      <c r="J27" t="n">
-        <v>-0.332925</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1.008401907812974</v>
-      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
@@ -2614,35 +2258,15 @@
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="n">
-        <v>0.15276519020913</v>
-      </c>
+      <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
-      <c r="W27" t="n">
-        <v>-0.332925</v>
-      </c>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="n">
-        <v>0.102247504860163</v>
-      </c>
+      <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="n">
-        <v>0.2427007657977054</v>
-      </c>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="n">
-        <v>0.153175639705909</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0.078807086651177</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0.08371505342808699</v>
-      </c>
+      <c r="AC27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2664,25 +2288,25 @@
         <v>104.15</v>
       </c>
       <c r="E28" t="n">
-        <v>2.491549779661391</v>
+        <v>2.491549779661275</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2594955560978293</v>
+        <v>0.2594955560978174</v>
       </c>
       <c r="G28" t="n">
-        <v>-5.550731080009665</v>
+        <v>-5.550731080009659</v>
       </c>
       <c r="H28" t="n">
-        <v>1.36817810576082</v>
+        <v>1.368178106242954</v>
       </c>
       <c r="I28" t="n">
-        <v>0.05987566672387565</v>
+        <v>0.05987566674497531</v>
       </c>
       <c r="J28" t="n">
         <v>-13.21</v>
       </c>
       <c r="K28" t="n">
-        <v>0.230738697896247</v>
+        <v>0.2307386979775679</v>
       </c>
       <c r="L28" t="n">
         <v>0.001</v>
@@ -2710,16 +2334,12 @@
       </c>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="n">
-        <v>1.36817810576082</v>
+        <v>1.368178106242954</v>
       </c>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="n">
-        <v>0.05987566672387565</v>
-      </c>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
+        <v>0.05987566674497531</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2741,26 +2361,18 @@
         <v>824.3</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1308423337395128</v>
+        <v>0.1308423257890916</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2719810911745942</v>
+        <v>0.2719810746481062</v>
       </c>
       <c r="G29" t="n">
         <v>-2.20113372715757</v>
       </c>
-      <c r="H29" t="n">
-        <v>0.010665980963197</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.02217130387320291</v>
-      </c>
-      <c r="J29" t="n">
-        <v>-2.201133727157571</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.08151781352686159</v>
-      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>0.14</v>
       </c>
@@ -2784,31 +2396,15 @@
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
-      <c r="W29" t="n">
-        <v>-2.201133727157571</v>
-      </c>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="n">
-        <v>0.010665980963197</v>
-      </c>
+      <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="n">
-        <v>0.02217130387320291</v>
-      </c>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2876,10 +2472,6 @@
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/application/output_max_withoutMP_min_default_kapp/compiled_results.xlsx
+++ b/application/output_max_withoutMP_min_default_kapp/compiled_results.xlsx
@@ -527,52 +527,52 @@
       <c r="S1" s="1" t="inlineStr"/>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>vprod</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>RBA: vprod</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>vCarbonSources</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>RBA: vCarbonSources</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>yield</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>RBA: yield</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
           <t>yield on minimal media at 1.0% exp. growth</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>FBA: yield on minimal media at 1.0% exp. growth</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>vCarbonSources</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>RBA: vCarbonSources</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>carbonSlack</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>RBA: carbonSlack</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>vprod</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>RBA: vprod</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>yield</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>RBA: yield</t>
         </is>
       </c>
     </row>
@@ -596,26 +596,18 @@
         <v>76.09</v>
       </c>
       <c r="E2" t="n">
-        <v>17.81382212023962</v>
+        <v>17.81382211868623</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5695516930700739</v>
+        <v>0.569551693020408</v>
       </c>
       <c r="G2" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H2" t="n">
-        <v>7.603274750981975</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.243095388405084</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.4268188320092925</v>
-      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
@@ -625,27 +617,15 @@
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="n">
-        <v>7.603274750981975</v>
-      </c>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="n">
-        <v>0.243095388405084</v>
-      </c>
+      <c r="AC2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -667,26 +647,18 @@
         <v>122.16</v>
       </c>
       <c r="E3" t="n">
-        <v>2.555301936214222</v>
+        <v>2.555301938109797</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3122195089297514</v>
+        <v>0.3122195099690078</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.549610217984472</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.677284484134693</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.08609624395920293</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.2757554909183281</v>
-      </c>
+        <v>-5.549610203628807</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>0.08</v>
       </c>
@@ -698,27 +670,15 @@
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="n">
-        <v>1.677284484134693</v>
-      </c>
+      <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="n">
-        <v>0.08609624395920293</v>
-      </c>
+      <c r="AC3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -748,10 +708,18 @@
       <c r="G4" t="n">
         <v>-5.545419566892341</v>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>2.782384782909539</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1053159182491552</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-13.20999999999783</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1582689832713884</v>
+      </c>
       <c r="L4" t="n">
         <v>0.13</v>
       </c>
@@ -763,15 +731,27 @@
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>2.782384782909539</v>
+      </c>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="W4" t="n">
+        <v>-13.20999999999783</v>
+      </c>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
+      <c r="Y4" t="n">
+        <v>0.1053159182491552</v>
+      </c>
       <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -801,10 +781,18 @@
       <c r="G5" t="n">
         <v>-5.544759808667549</v>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>1.980886911549392</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.07497845924077497</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-13.20999999999922</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1002449997300549</v>
+      </c>
       <c r="L5" t="n">
         <v>0.14</v>
       </c>
@@ -816,15 +804,27 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
+      <c r="U5" t="n">
+        <v>1.980886911549392</v>
+      </c>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="W5" t="n">
+        <v>-13.20999999999922</v>
+      </c>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
+      <c r="Y5" t="n">
+        <v>0.07497845924077497</v>
+      </c>
       <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -854,10 +854,18 @@
       <c r="G6" t="n">
         <v>-5.545419566892341</v>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>2.782384782909539</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1053159182491552</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-13.20999999999783</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.1582689832713884</v>
+      </c>
       <c r="L6" t="n">
         <v>0.13</v>
       </c>
@@ -869,15 +877,27 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
+      <c r="U6" t="n">
+        <v>2.782384782909539</v>
+      </c>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="W6" t="n">
+        <v>-13.20999999999783</v>
+      </c>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
+      <c r="Y6" t="n">
+        <v>0.1053159182491552</v>
+      </c>
       <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -907,10 +927,18 @@
       <c r="G7" t="n">
         <v>-5.544759808667549</v>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>1.980886911549392</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.07497845924077497</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-13.20999999999922</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.1002449997300549</v>
+      </c>
       <c r="L7" t="n">
         <v>0.14</v>
       </c>
@@ -922,15 +950,27 @@
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
+      <c r="U7" t="n">
+        <v>1.980886911549392</v>
+      </c>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+      <c r="W7" t="n">
+        <v>-13.20999999999922</v>
+      </c>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
+      <c r="Y7" t="n">
+        <v>0.07497845924077497</v>
+      </c>
       <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -961,16 +1001,16 @@
         <v>-5.549441423005486</v>
       </c>
       <c r="H8" t="n">
-        <v>1.508393595734358</v>
+        <v>1.508393551067873</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08690249840967075</v>
+        <v>0.08690249733579326</v>
       </c>
       <c r="J8" t="n">
-        <v>-13.21</v>
+        <v>-13.20999977206557</v>
       </c>
       <c r="K8" t="n">
-        <v>0.188887731913311</v>
+        <v>0.1888877295791747</v>
       </c>
       <c r="L8" t="n">
         <v>0.07000000000000001</v>
@@ -983,26 +1023,26 @@
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
+      <c r="U8" t="n">
+        <v>1.508393551067873</v>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>-13.21</v>
+        <v>-13.20999977206557</v>
       </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>0.08690249733579326</v>
       </c>
       <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="n">
-        <v>1.508393595734358</v>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
       </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="n">
-        <v>0.08690249840967075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1025,26 +1065,18 @@
         <v>234.33</v>
       </c>
       <c r="E9" t="n">
-        <v>2.844697659175361</v>
+        <v>2.844697655376317</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2800995813194391</v>
+        <v>0.2800995809453711</v>
       </c>
       <c r="G9" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.303006696975616</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.02983517376129858</v>
-      </c>
-      <c r="J9" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.1065163097379753</v>
-      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -1054,27 +1086,15 @@
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="n">
-        <v>0.303006696975616</v>
-      </c>
+      <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="n">
-        <v>0.02983517376129858</v>
-      </c>
+      <c r="AC9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1096,25 +1116,25 @@
         <v>90.12</v>
       </c>
       <c r="E10" t="n">
-        <v>5.008732116108107</v>
+        <v>5.008732115510577</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4516357717891071</v>
+        <v>0.4516357717351978</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.547686668594033</v>
+        <v>-5.547686668594404</v>
       </c>
       <c r="H10" t="n">
-        <v>4.964587119160285</v>
+        <v>4.96458746640804</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1879978016775758</v>
+        <v>0.1879978148270841</v>
       </c>
       <c r="J10" t="n">
-        <v>-13.21</v>
+        <v>-13.20999999999908</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4162597682040166</v>
+        <v>0.4162597973689973</v>
       </c>
       <c r="L10" t="n">
         <v>0.11</v>
@@ -1127,26 +1147,26 @@
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
+      <c r="U10" t="n">
+        <v>4.96458746640804</v>
       </c>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>-13.21</v>
+        <v>-13.20999999999908</v>
       </c>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>0.1879978148270841</v>
       </c>
       <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="n">
-        <v>4.964587119160285</v>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
       </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="n">
-        <v>0.1879978016775758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1169,25 +1189,25 @@
         <v>74.12</v>
       </c>
       <c r="E11" t="n">
-        <v>4.161856555785747</v>
+        <v>4.161856555785738</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3085281699143037</v>
+        <v>0.3085281699143032</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.549820853803197</v>
+        <v>-5.549820853803193</v>
       </c>
       <c r="H11" t="n">
-        <v>1.643125404324842</v>
+        <v>1.643125404328688</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0511746136646067</v>
+        <v>0.05117498368330443</v>
       </c>
       <c r="J11" t="n">
-        <v>-13.21</v>
+        <v>-13.20990448564782</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1658669082917806</v>
+        <v>0.1658681075945798</v>
       </c>
       <c r="L11" t="n">
         <v>0.04</v>
@@ -1200,26 +1220,26 @@
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
+      <c r="U11" t="n">
+        <v>1.643125404328688</v>
       </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>-13.21</v>
+        <v>-13.20990448564782</v>
       </c>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>0.05117498368330443</v>
       </c>
       <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="n">
-        <v>1.643125404324842</v>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
       </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="n">
-        <v>0.0511746136646067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1251,16 +1271,16 @@
         <v>-13.21</v>
       </c>
       <c r="H12" t="n">
-        <v>1.484989845155429</v>
+        <v>1.484987698744683</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0911637437045721</v>
+        <v>0.09116368895875351</v>
       </c>
       <c r="J12" t="n">
-        <v>-13.21</v>
+        <v>-13.20998883909559</v>
       </c>
       <c r="K12" t="n">
-        <v>0.118900290062392</v>
+        <v>0.1189002186601717</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1271,26 +1291,26 @@
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
+      <c r="U12" t="n">
+        <v>1.484987698744683</v>
       </c>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
-        <v>-13.21</v>
+        <v>-13.20998883909559</v>
       </c>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>0.09116368895875351</v>
       </c>
       <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="n">
-        <v>1.484989845155429</v>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
       </c>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="n">
-        <v>0.0911637437045721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1321,10 +1341,18 @@
       <c r="G13" t="n">
         <v>-5.548570274707247</v>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>1.253882403716711</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.08595919604849678</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-13.20999977588993</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.2016467335945014</v>
+      </c>
       <c r="L13" t="n">
         <v>0.15</v>
       </c>
@@ -1336,15 +1364,27 @@
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
+      <c r="U13" t="n">
+        <v>1.253882403716711</v>
+      </c>
       <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
+      <c r="W13" t="n">
+        <v>-13.20999977588993</v>
+      </c>
       <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
+      <c r="Y13" t="n">
+        <v>0.08595919604849678</v>
+      </c>
       <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1366,18 +1406,26 @@
         <v>256.4</v>
       </c>
       <c r="E14" t="n">
-        <v>1.016994536421399</v>
+        <v>1.016994536421393</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2607839207207027</v>
+        <v>0.2607839207207009</v>
       </c>
       <c r="G14" t="n">
         <v>-5.550180402242267</v>
       </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>0.370650269014856</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.03993301551062727</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-13.20996001391259</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.1531268315940209</v>
+      </c>
       <c r="L14" t="n">
         <v>0.1</v>
       </c>
@@ -1389,15 +1437,27 @@
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
+      <c r="U14" t="n">
+        <v>0.370650269014856</v>
+      </c>
       <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
+      <c r="W14" t="n">
+        <v>-13.20996001391259</v>
+      </c>
       <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
+      <c r="Y14" t="n">
+        <v>0.03993301551062727</v>
+      </c>
       <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1419,25 +1479,25 @@
         <v>242.44</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9874314721363102</v>
+        <v>0.987431472157478</v>
       </c>
       <c r="F15" t="n">
-        <v>0.239394068030912</v>
+        <v>0.2393940680360472</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.55071750506583</v>
+        <v>-5.550717505065756</v>
       </c>
       <c r="H15" t="n">
-        <v>0.400445192664307</v>
+        <v>0.40044730324187</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04079395489908182</v>
+        <v>0.04079417192663747</v>
       </c>
       <c r="J15" t="n">
-        <v>-13.21</v>
+        <v>-13.2099993459337</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1704050364932779</v>
+        <v>0.1704059430599375</v>
       </c>
       <c r="L15" t="n">
         <v>0.005</v>
@@ -1450,26 +1510,26 @@
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
+      <c r="U15" t="n">
+        <v>0.40044730324187</v>
       </c>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="n">
-        <v>-13.21</v>
+        <v>-13.2099993459337</v>
       </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>0.04079417192663747</v>
       </c>
       <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="n">
-        <v>0.400445192664307</v>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
       </c>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="n">
-        <v>0.04079395489908182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1492,18 +1552,26 @@
         <v>74.12</v>
       </c>
       <c r="E16" t="n">
-        <v>4.68640372837228</v>
+        <v>4.686403728372341</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3474539429141642</v>
+        <v>0.3474539429141684</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.549184128068436</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>-5.549184128068442</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.203868573868331</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.03749410057718579</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-13.20999999999747</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.1079109946564859</v>
+      </c>
       <c r="L16" t="n">
         <v>0.06</v>
       </c>
@@ -1515,15 +1583,27 @@
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
+      <c r="U16" t="n">
+        <v>1.203868573868331</v>
+      </c>
       <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
+      <c r="W16" t="n">
+        <v>-13.20999999999747</v>
+      </c>
       <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
+      <c r="Y16" t="n">
+        <v>0.03749410057718579</v>
+      </c>
       <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1545,13 +1625,13 @@
         <v>89.06999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>8.860211570646928</v>
+        <v>8.860211568548351</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7940334043275107</v>
+        <v>0.7940334041382824</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.516810175715775</v>
+        <v>-5.516810175723823</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
@@ -1598,25 +1678,25 @@
         <v>140.09</v>
       </c>
       <c r="E18" t="n">
-        <v>3.836460797193417</v>
+        <v>3.836460793415273</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5375941652045984</v>
+        <v>0.5375941646750338</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.549254244899956</v>
+        <v>-5.549254244901423</v>
       </c>
       <c r="H18" t="n">
-        <v>1.686107340195276</v>
+        <v>1.686107293409451</v>
       </c>
       <c r="I18" t="n">
-        <v>0.09925235175857776</v>
+        <v>0.09925235060930636</v>
       </c>
       <c r="J18" t="n">
-        <v>-13.21</v>
+        <v>-13.2099997864135</v>
       </c>
       <c r="K18" t="n">
-        <v>0.184623193819085</v>
+        <v>0.1846231918631458</v>
       </c>
       <c r="L18" t="n">
         <v>0.07000000000000001</v>
@@ -1629,26 +1709,26 @@
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
+      <c r="U18" t="n">
+        <v>1.686107293409451</v>
       </c>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>-13.21</v>
+        <v>-13.2099997864135</v>
       </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>0.09925235060930636</v>
       </c>
       <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="n">
-        <v>1.686107340195276</v>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
       </c>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="n">
-        <v>0.09925235175857776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1671,25 +1751,25 @@
         <v>272.25</v>
       </c>
       <c r="E19" t="n">
-        <v>3.969093036182585</v>
+        <v>3.969093036182524</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4540541183177073</v>
+        <v>0.4540541183177003</v>
       </c>
       <c r="G19" t="n">
         <v>-13.21</v>
       </c>
       <c r="H19" t="n">
-        <v>0.400094572886362</v>
+        <v>0.400094572755742</v>
       </c>
       <c r="I19" t="n">
-        <v>0.04576979851052801</v>
+        <v>0.04576979850406694</v>
       </c>
       <c r="J19" t="n">
-        <v>-13.21</v>
+        <v>-13.20999999755208</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1008025181670135</v>
+        <v>0.1008025181527854</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1700,26 +1780,26 @@
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
+      <c r="U19" t="n">
+        <v>0.400094572755742</v>
       </c>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="n">
-        <v>-13.21</v>
+        <v>-13.20999999755208</v>
       </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>0.04576979850406694</v>
       </c>
       <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="n">
-        <v>0.400094572886362</v>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
       </c>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="n">
-        <v>0.04576979851052801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1813,10 +1893,10 @@
         <v>242.44</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1141673830273931</v>
+        <v>0.1141673721518181</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2428832021681798</v>
+        <v>0.2428831790311471</v>
       </c>
       <c r="G21" t="n">
         <v>-0.332925</v>
@@ -1880,13 +1960,13 @@
         <v>103.1</v>
       </c>
       <c r="E22" t="n">
-        <v>4.826633115573516</v>
+        <v>4.826633115573237</v>
       </c>
       <c r="F22" t="n">
-        <v>0.497938311736471</v>
+        <v>0.497938311736443</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.547262026771114</v>
+        <v>-5.547262026771105</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
@@ -1942,16 +2022,16 @@
         <v>-13.21</v>
       </c>
       <c r="H23" t="n">
-        <v>0.203122931650805</v>
+        <v>0.203124484755227</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02811454132542408</v>
+        <v>0.02811475629406541</v>
       </c>
       <c r="J23" t="n">
-        <v>-13.21</v>
+        <v>-13.20999999943978</v>
       </c>
       <c r="K23" t="n">
-        <v>0.08088860767277281</v>
+        <v>0.0808892261610451</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -1962,26 +2042,26 @@
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
+      <c r="U23" t="n">
+        <v>0.203124484755227</v>
       </c>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="n">
-        <v>-13.21</v>
+        <v>-13.20999999943978</v>
       </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>0.02811475629406541</v>
       </c>
       <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="n">
-        <v>0.203122931650805</v>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
       </c>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="n">
-        <v>0.02811454132542408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2004,25 +2084,25 @@
         <v>228.24</v>
       </c>
       <c r="E24" t="n">
-        <v>1.465955758988919</v>
+        <v>1.465955758989043</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3345898405304117</v>
+        <v>0.3345898405304398</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.550743282537622</v>
+        <v>-5.550743282537624</v>
       </c>
       <c r="H24" t="n">
-        <v>0.40009457288279</v>
+        <v>0.400094572886379</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03837097818897942</v>
+        <v>0.03837097819097909</v>
       </c>
       <c r="J24" t="n">
-        <v>-13.21</v>
+        <v>-13.20999999943007</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1146806434055244</v>
+        <v>0.1146806434114913</v>
       </c>
       <c r="L24" t="n">
         <v>0.0002</v>
@@ -2035,26 +2115,26 @@
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
+      <c r="U24" t="n">
+        <v>0.400094572886379</v>
       </c>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="n">
-        <v>-13.21</v>
+        <v>-13.20999999943007</v>
       </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>0.03837097819097909</v>
       </c>
       <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="n">
-        <v>0.40009457288279</v>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
       </c>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="n">
-        <v>0.03837097818897942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2077,25 +2157,25 @@
         <v>246.3</v>
       </c>
       <c r="E25" t="n">
-        <v>1.116107088093233</v>
+        <v>1.116107087963434</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2748980962445054</v>
+        <v>0.2748980962125347</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.550726324289684</v>
+        <v>-5.550726324289706</v>
       </c>
       <c r="H25" t="n">
-        <v>0.273747905701475</v>
+        <v>0.273747157079806</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02833111512552243</v>
+        <v>0.02833108292880386</v>
       </c>
       <c r="J25" t="n">
-        <v>-13.21</v>
+        <v>-13.20997888685302</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1030604268002045</v>
+        <v>0.1030603096898131</v>
       </c>
       <c r="L25" t="n">
         <v>0.003</v>
@@ -2108,26 +2188,26 @@
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
+      <c r="U25" t="n">
+        <v>0.273747157079806</v>
       </c>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="n">
-        <v>-13.21</v>
+        <v>-13.20997888685302</v>
       </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>0.02833108292880386</v>
       </c>
       <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="n">
-        <v>0.273747905701475</v>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
       </c>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="n">
-        <v>0.02833111512552243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2150,26 +2230,18 @@
         <v>174.15</v>
       </c>
       <c r="E26" t="n">
-        <v>9.725652187360838</v>
+        <v>9.72565218736074</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7116896739912171</v>
+        <v>0.7116896739912099</v>
       </c>
       <c r="G26" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H26" t="n">
-        <v>1.894526122141629</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.1386348855850561</v>
-      </c>
-      <c r="J26" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.1947968203719743</v>
-      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
@@ -2179,27 +2251,15 @@
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
-      <c r="W26" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="n">
-        <v>1.894526122141629</v>
-      </c>
+      <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="n">
-        <v>0.1386348855850561</v>
-      </c>
+      <c r="AC26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2288,26 +2348,18 @@
         <v>104.15</v>
       </c>
       <c r="E28" t="n">
-        <v>2.491549779661275</v>
+        <v>2.491549780251542</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2594955560978174</v>
+        <v>0.2594955561592948</v>
       </c>
       <c r="G28" t="n">
-        <v>-5.550731080009659</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1.368178106242954</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.05987566674497531</v>
-      </c>
-      <c r="J28" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.2307386979775679</v>
-      </c>
+        <v>-5.55073108000964</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>0.001</v>
       </c>
@@ -2319,27 +2371,15 @@
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
-      <c r="W28" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="n">
-        <v>1.368178106242954</v>
-      </c>
+      <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="n">
-        <v>0.05987566674497531</v>
-      </c>
+      <c r="AC28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2361,18 +2401,26 @@
         <v>824.3</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1308423257890916</v>
+        <v>0.1308423337395128</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2719810746481062</v>
+        <v>0.2719810911745942</v>
       </c>
       <c r="G29" t="n">
         <v>-2.20113372715757</v>
       </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>0.01066598096386</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.02217130388207889</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-2.2011337264132</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.08151781355949614</v>
+      </c>
       <c r="L29" t="n">
         <v>0.14</v>
       </c>
@@ -2396,15 +2444,27 @@
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
+      <c r="U29" t="n">
+        <v>0.01066598096386</v>
+      </c>
       <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
+      <c r="W29" t="n">
+        <v>-2.2011337264132</v>
+      </c>
       <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
+      <c r="Y29" t="n">
+        <v>0.02217130388207889</v>
+      </c>
       <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2426,10 +2486,10 @@
         <v>126.11004</v>
       </c>
       <c r="E30" t="n">
-        <v>0.007105612999394498</v>
+        <v>0.007105612009006309</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06718414909479177</v>
+        <v>0.06718413973059086</v>
       </c>
       <c r="G30" t="n">
         <v>-0.078476895921783</v>

--- a/application/output_max_withoutMP_min_default_kapp/compiled_results.xlsx
+++ b/application/output_max_withoutMP_min_default_kapp/compiled_results.xlsx
@@ -527,52 +527,52 @@
       <c r="S1" s="1" t="inlineStr"/>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>yield on minimal media at 1.0% exp. growth</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>FBA: yield on minimal media at 1.0% exp. growth</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>vCarbonSources</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>RBA: vCarbonSources</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>carbonSlack</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>RBA: carbonSlack</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
           <t>vprod</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>RBA: vprod</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>vCarbonSources</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>RBA: vCarbonSources</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>yield</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>RBA: yield</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>yield on minimal media at 1.0% exp. growth</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>FBA: yield on minimal media at 1.0% exp. growth</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>carbonSlack</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>RBA: carbonSlack</t>
         </is>
       </c>
     </row>
@@ -596,18 +596,26 @@
         <v>76.09</v>
       </c>
       <c r="E2" t="n">
-        <v>17.81382211868623</v>
+        <v>17.81382212023962</v>
       </c>
       <c r="F2" t="n">
-        <v>0.569551693020408</v>
+        <v>0.5695516930700739</v>
       </c>
       <c r="G2" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>7.60327475105763</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.243095388413903</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-13.20999999965221</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.4268188320247767</v>
+      </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
@@ -617,15 +625,27 @@
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
+      <c r="W2" t="n">
+        <v>-13.20999999965221</v>
+      </c>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
       <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+      <c r="AA2" t="n">
+        <v>7.60327475105763</v>
+      </c>
       <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
+      <c r="AC2" t="n">
+        <v>0.243095388413903</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -647,18 +667,26 @@
         <v>122.16</v>
       </c>
       <c r="E3" t="n">
-        <v>2.555301938109797</v>
+        <v>2.555301936198521</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3122195099690078</v>
+        <v>0.3122195097354288</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.549610203628807</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>-5.549610203629693</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.677292248506234</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.08609664251053509</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-13.20999999993238</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.275756766716764</v>
+      </c>
       <c r="L3" t="n">
         <v>0.08</v>
       </c>
@@ -670,15 +698,27 @@
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
+      <c r="W3" t="n">
+        <v>-13.20999999993238</v>
+      </c>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
       <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
+      <c r="AA3" t="n">
+        <v>1.677292248506234</v>
+      </c>
       <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
+      <c r="AC3" t="n">
+        <v>0.08609664251053509</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -700,26 +740,18 @@
         <v>90.08</v>
       </c>
       <c r="E4" t="n">
-        <v>7.379942361103544</v>
+        <v>7.379942361104087</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6654236103138855</v>
+        <v>0.6654236103139346</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.545419566892341</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.782384782909539</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.1053159182491552</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-13.20999999999783</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1582689832713884</v>
-      </c>
+        <v>-5.54541956689234</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>0.13</v>
       </c>
@@ -731,27 +763,15 @@
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>2.782384782909539</v>
-      </c>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="n">
-        <v>-13.20999999999783</v>
-      </c>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="n">
-        <v>0.1053159182491552</v>
-      </c>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -773,25 +793,25 @@
         <v>90.08</v>
       </c>
       <c r="E5" t="n">
-        <v>8.294245459149213</v>
+        <v>8.294245457648479</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7479521117530147</v>
+        <v>0.7479521116175375</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.544759808667549</v>
+        <v>-5.544759808668625</v>
       </c>
       <c r="H5" t="n">
-        <v>1.980886911549392</v>
+        <v>1.980880011876821</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07497845924077497</v>
+        <v>0.07497837810509894</v>
       </c>
       <c r="J5" t="n">
-        <v>-13.20999999999922</v>
+        <v>-13.20996828271403</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1002449997300549</v>
+        <v>0.1002448912711124</v>
       </c>
       <c r="L5" t="n">
         <v>0.14</v>
@@ -804,26 +824,26 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="n">
-        <v>1.980886911549392</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>-13.20999999999922</v>
+        <v>-13.20996828271403</v>
       </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="n">
-        <v>0.07497845924077497</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
+      <c r="AA5" t="n">
+        <v>1.980880011876821</v>
       </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.07497837810509894</v>
       </c>
     </row>
     <row r="6">
@@ -846,26 +866,18 @@
         <v>90.08</v>
       </c>
       <c r="E6" t="n">
-        <v>7.379942361103544</v>
+        <v>7.379942361104087</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6654236103138855</v>
+        <v>0.6654236103139346</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.545419566892341</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.782384782909539</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.1053159182491552</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-13.20999999999783</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.1582689832713884</v>
-      </c>
+        <v>-5.54541956689234</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>0.13</v>
       </c>
@@ -877,27 +889,15 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="n">
-        <v>2.782384782909539</v>
-      </c>
+      <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="n">
-        <v>-13.20999999999783</v>
-      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="n">
-        <v>0.1053159182491552</v>
-      </c>
+      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -919,25 +919,25 @@
         <v>90.08</v>
       </c>
       <c r="E7" t="n">
-        <v>8.294245459149213</v>
+        <v>8.294245457648479</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7479521117530147</v>
+        <v>0.7479521116175375</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.544759808667549</v>
+        <v>-5.544759808668625</v>
       </c>
       <c r="H7" t="n">
-        <v>1.980886911549392</v>
+        <v>1.980880011876821</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07497845924077497</v>
+        <v>0.07497837810509894</v>
       </c>
       <c r="J7" t="n">
-        <v>-13.20999999999922</v>
+        <v>-13.20996828271403</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1002449997300549</v>
+        <v>0.1002448912711124</v>
       </c>
       <c r="L7" t="n">
         <v>0.14</v>
@@ -950,26 +950,26 @@
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="n">
-        <v>1.980886911549392</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>-13.20999999999922</v>
+        <v>-13.20996828271403</v>
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="n">
-        <v>0.07497845924077497</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
+      <c r="AA7" t="n">
+        <v>1.980880011876821</v>
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.07497837810509894</v>
       </c>
     </row>
     <row r="8">
@@ -1001,16 +1001,16 @@
         <v>-5.549441423005486</v>
       </c>
       <c r="H8" t="n">
-        <v>1.508393551067873</v>
+        <v>1.508393595216451</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08690249733579326</v>
+        <v>0.08690249840873465</v>
       </c>
       <c r="J8" t="n">
-        <v>-13.20999977206557</v>
+        <v>-13.20999999560664</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1888877295791747</v>
+        <v>0.1888877319112764</v>
       </c>
       <c r="L8" t="n">
         <v>0.07000000000000001</v>
@@ -1023,26 +1023,26 @@
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="n">
-        <v>1.508393551067873</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>-13.20999977206557</v>
+        <v>-13.20999999560664</v>
       </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="n">
-        <v>0.08690249733579326</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
+      <c r="AA8" t="n">
+        <v>1.508393595216451</v>
       </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.08690249840873465</v>
       </c>
     </row>
     <row r="9">
@@ -1065,18 +1065,26 @@
         <v>234.33</v>
       </c>
       <c r="E9" t="n">
-        <v>2.844697655376317</v>
+        <v>2.844697655376321</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2800995809453711</v>
+        <v>0.2800995809453715</v>
       </c>
       <c r="G9" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>0.303006673342385</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.02983517278853134</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-13.20999940038452</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.1065163064072922</v>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -1086,15 +1094,27 @@
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
+      <c r="W9" t="n">
+        <v>-13.20999940038452</v>
+      </c>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
       <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
+      <c r="AA9" t="n">
+        <v>0.303006673342385</v>
+      </c>
       <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
+      <c r="AC9" t="n">
+        <v>0.02983517278853134</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1116,25 +1136,25 @@
         <v>90.12</v>
       </c>
       <c r="E10" t="n">
-        <v>5.008732115510577</v>
+        <v>5.008732116108074</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4516357717351978</v>
+        <v>0.451635771789103</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.547686668594404</v>
+        <v>-5.547686668594046</v>
       </c>
       <c r="H10" t="n">
-        <v>4.96458746640804</v>
+        <v>4.964587466408413</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1879978148270841</v>
+        <v>0.1879978148282193</v>
       </c>
       <c r="J10" t="n">
-        <v>-13.20999999999908</v>
+        <v>-13.20999999992031</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4162597973689973</v>
+        <v>0.4162597973218278</v>
       </c>
       <c r="L10" t="n">
         <v>0.11</v>
@@ -1147,26 +1167,26 @@
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="n">
-        <v>4.96458746640804</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>-13.20999999999908</v>
+        <v>-13.20999999992031</v>
       </c>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="n">
-        <v>0.1879978148270841</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
+      <c r="AA10" t="n">
+        <v>4.964587466408413</v>
       </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.1879978148282193</v>
       </c>
     </row>
     <row r="11">
@@ -1189,25 +1209,25 @@
         <v>74.12</v>
       </c>
       <c r="E11" t="n">
-        <v>4.161856555785738</v>
+        <v>4.161856556537492</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3085281699143032</v>
+        <v>0.3085281699700435</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.549820853803193</v>
+        <v>-5.549820853802994</v>
       </c>
       <c r="H11" t="n">
-        <v>1.643125404328688</v>
+        <v>1.643145652518849</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05117498368330443</v>
+        <v>0.05117524428818276</v>
       </c>
       <c r="J11" t="n">
-        <v>-13.20990448564782</v>
+        <v>-13.2099999999823</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1658681075945798</v>
+        <v>0.165868952235874</v>
       </c>
       <c r="L11" t="n">
         <v>0.04</v>
@@ -1220,26 +1240,26 @@
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="n">
-        <v>1.643125404328688</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>-13.20990448564782</v>
+        <v>-13.2099999999823</v>
       </c>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="n">
-        <v>0.05117498368330443</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
+      <c r="AA11" t="n">
+        <v>1.643145652518849</v>
       </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>0.05117524428818276</v>
       </c>
     </row>
     <row r="12">
@@ -1271,16 +1291,16 @@
         <v>-13.21</v>
       </c>
       <c r="H12" t="n">
-        <v>1.484987698744683</v>
+        <v>1.484989845495886</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09116368895875351</v>
+        <v>0.09116374372840984</v>
       </c>
       <c r="J12" t="n">
-        <v>-13.20998883909559</v>
+        <v>-13.20999999957441</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1189002186601717</v>
+        <v>0.1189002900934824</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1291,26 +1311,26 @@
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
-      <c r="U12" t="n">
-        <v>1.484987698744683</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
-        <v>-13.20998883909559</v>
+        <v>-13.20999999957441</v>
       </c>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="n">
-        <v>0.09116368895875351</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
+      <c r="AA12" t="n">
+        <v>1.484989845495886</v>
       </c>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>0.09116374372840984</v>
       </c>
     </row>
     <row r="13">
@@ -1342,16 +1362,16 @@
         <v>-5.548570274707247</v>
       </c>
       <c r="H13" t="n">
-        <v>1.253882403716711</v>
+        <v>1.253882439781464</v>
       </c>
       <c r="I13" t="n">
-        <v>0.08595919604849678</v>
+        <v>0.08595919708023568</v>
       </c>
       <c r="J13" t="n">
-        <v>-13.20999977588993</v>
+        <v>-13.20999999728701</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2016467335945014</v>
+        <v>0.2016467360147984</v>
       </c>
       <c r="L13" t="n">
         <v>0.15</v>
@@ -1364,26 +1384,26 @@
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
-      <c r="U13" t="n">
-        <v>1.253882403716711</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>-13.20999977588993</v>
+        <v>-13.20999999728701</v>
       </c>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="n">
-        <v>0.08595919604849678</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
+      <c r="AA13" t="n">
+        <v>1.253882439781464</v>
       </c>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>0.08595919708023568</v>
       </c>
     </row>
     <row r="14">
@@ -1406,26 +1426,18 @@
         <v>256.4</v>
       </c>
       <c r="E14" t="n">
-        <v>1.016994536421393</v>
+        <v>1.016994536421385</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2607839207207009</v>
+        <v>0.260783920720699</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.550180402242267</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.370650269014856</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.03993301551062727</v>
-      </c>
-      <c r="J14" t="n">
-        <v>-13.20996001391259</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1531268315940209</v>
-      </c>
+        <v>-5.550180402242266</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>0.1</v>
       </c>
@@ -1437,27 +1449,15 @@
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="n">
-        <v>0.370650269014856</v>
-      </c>
+      <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
-      <c r="W14" t="n">
-        <v>-13.20996001391259</v>
-      </c>
+      <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="n">
-        <v>0.03993301551062727</v>
-      </c>
+      <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1479,25 +1479,25 @@
         <v>242.44</v>
       </c>
       <c r="E15" t="n">
-        <v>0.987431472157478</v>
+        <v>0.9874314723701774</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2393940680360472</v>
+        <v>0.2393940680876117</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.550717505065756</v>
+        <v>-5.550717505065815</v>
       </c>
       <c r="H15" t="n">
-        <v>0.40044730324187</v>
+        <v>0.40044733715478</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04079417192663747</v>
+        <v>0.04079417338163999</v>
       </c>
       <c r="J15" t="n">
-        <v>-13.2099993459337</v>
+        <v>-13.20999999349645</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1704059430599375</v>
+        <v>0.1704059491010881</v>
       </c>
       <c r="L15" t="n">
         <v>0.005</v>
@@ -1510,26 +1510,26 @@
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="n">
-        <v>0.40044730324187</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="n">
-        <v>-13.2099993459337</v>
+        <v>-13.20999999349645</v>
       </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="n">
-        <v>0.04079417192663747</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
+      <c r="AA15" t="n">
+        <v>0.40044733715478</v>
       </c>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>0.04079417338163999</v>
       </c>
     </row>
     <row r="16">
@@ -1552,25 +1552,25 @@
         <v>74.12</v>
       </c>
       <c r="E16" t="n">
-        <v>4.686403728372341</v>
+        <v>4.686403727429831</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3474539429141684</v>
+        <v>0.3474539428442705</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.549184128068442</v>
+        <v>-5.549184128068751</v>
       </c>
       <c r="H16" t="n">
-        <v>1.203868573868331</v>
+        <v>1.203868573868351</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03749410057718579</v>
+        <v>0.03749410057725983</v>
       </c>
       <c r="J16" t="n">
-        <v>-13.20999999999747</v>
+        <v>-13.2099999999716</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1079109946564859</v>
+        <v>0.1079109946784076</v>
       </c>
       <c r="L16" t="n">
         <v>0.06</v>
@@ -1583,26 +1583,26 @@
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="n">
-        <v>1.203868573868331</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="n">
-        <v>-13.20999999999747</v>
+        <v>-13.2099999999716</v>
       </c>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="n">
-        <v>0.03749410057718579</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
+      <c r="AA16" t="n">
+        <v>1.203868573868351</v>
       </c>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>0.03749410057725983</v>
       </c>
     </row>
     <row r="17">
@@ -1633,10 +1633,18 @@
       <c r="G17" t="n">
         <v>-5.516810175723823</v>
       </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>14.73768831001843</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.5515809663507861</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-13.20999999992176</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.6946571308915956</v>
+      </c>
       <c r="L17" t="n">
         <v>0.6899999999999999</v>
       </c>
@@ -1648,15 +1656,27 @@
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
+      <c r="W17" t="n">
+        <v>-13.20999999992176</v>
+      </c>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
       <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
+      <c r="AA17" t="n">
+        <v>14.73768831001843</v>
+      </c>
       <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
+      <c r="AC17" t="n">
+        <v>0.5515809663507861</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1678,25 +1698,25 @@
         <v>140.09</v>
       </c>
       <c r="E18" t="n">
-        <v>3.836460793415273</v>
+        <v>3.836460770451315</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5375941646750338</v>
+        <v>0.5375941614562846</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.549254244901423</v>
+        <v>-5.549254244910345</v>
       </c>
       <c r="H18" t="n">
-        <v>1.686107293409451</v>
+        <v>1.686100064945432</v>
       </c>
       <c r="I18" t="n">
-        <v>0.09925235060930636</v>
+        <v>0.09925217304569846</v>
       </c>
       <c r="J18" t="n">
-        <v>-13.2099997864135</v>
+        <v>-13.20996678697218</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1846231918631458</v>
+        <v>0.1846228626755079</v>
       </c>
       <c r="L18" t="n">
         <v>0.07000000000000001</v>
@@ -1709,26 +1729,26 @@
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
-      <c r="U18" t="n">
-        <v>1.686107293409451</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>-13.2099997864135</v>
+        <v>-13.20996678697218</v>
       </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="n">
-        <v>0.09925235060930636</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
+      <c r="AA18" t="n">
+        <v>1.686100064945432</v>
       </c>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>0.09925217304569846</v>
       </c>
     </row>
     <row r="19">
@@ -1751,25 +1771,25 @@
         <v>272.25</v>
       </c>
       <c r="E19" t="n">
-        <v>3.969093036182524</v>
+        <v>3.969093036182594</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4540541183177003</v>
+        <v>0.4540541183177083</v>
       </c>
       <c r="G19" t="n">
         <v>-13.21</v>
       </c>
       <c r="H19" t="n">
-        <v>0.400094572755742</v>
+        <v>0.400094572882881</v>
       </c>
       <c r="I19" t="n">
-        <v>0.04576979850406694</v>
+        <v>0.04576979851014944</v>
       </c>
       <c r="J19" t="n">
-        <v>-13.20999999755208</v>
+        <v>-13.20999999999433</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1008025181527854</v>
+        <v>0.1008025181661796</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1780,26 +1800,26 @@
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="n">
-        <v>0.400094572755742</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="n">
-        <v>-13.20999999755208</v>
+        <v>-13.20999999999433</v>
       </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="n">
-        <v>0.04576979850406694</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
+      <c r="AA19" t="n">
+        <v>0.400094572882881</v>
       </c>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>0.04576979851014944</v>
       </c>
     </row>
     <row r="20">
@@ -1841,22 +1861,10 @@
           <t>media:reset;c_sources:EX_sucr_e;media:reset;c_sources:EX_sucr_e;EX_sucr_e:(-0.332925,1000);EX_k_e:(-0.1,1000);EX_nh4_e:(-0.09,1000);EX_ca2_e:(-0.002844,1000);EX_mg2_e:(-0.004689,1000);EX_pi_e:(-0.01,1000);EX_no3_e:(-0.003217,1000);EX_cl_e:(-0.00643,1000);EX_so4_e:(-0.002,1000);EX_h_e:(-1000,1000);EX_h2o_e:(-1000,1000);EX_btn_c:(-0.01,1000);EX_o2_e:(-26.25403530509562,1000);EX_co2_e:(0,1000);EX_thm_e:(-1000,1000);EX_ribflv_e:(-1000,1000);EX_nac_e:(-1000,1000);EX_pydxn_e:(-1000,1000);EX_fol_e:(-1000,1000);EX_pnto__R_e:(-1000,1000);EX_4abz_e:(-1000,1000);EX_cu2_e:(-1000,1000);EX_fe2_e:(-1000,1000);EX_fe3_e:(-1000,1000);EX_mn2_e:(-1000,1000);EX_na1_e:(-1000,1000);EX_ni2_e:(-1000,1000);EX_zn2_e:(-1000,1000);EX_cobalt2_e:(-1000,1000);EX_inost_e:(-1000,1000);EX_asp__L_e:(-0.00046,1000);EX_thr__L_e:(-0.000276,1000);EX_ser__L_e:(-0.000334,1000);EX_glu__L_e:(-0.001013,1000);EX_gly_e:(-0.000747,1000);EX_tyr__L_e:(-0.000094,1000);EX_lys__L_e:(-0.000216,1000);EX_arg__L_e:(-0.000236,1000);EX_trp__L_e:(-0.000023,1000);EX_chol_e:(-0.090319,1000);EX_ala__L_e:(-0.001179,1000);EX_val__L_e:(-0.000463,1000);EX_met__L_e:(-0.000132,1000);EX_ile__L_e:(-0.000253,1000);EX_leu__L_e:(-0.000709,1000);EX_phe__L_e:(-0.000229,1000);EX_his__L_e:(-0.000205,1000);EX_pro__L_e:(-0.000761,1000);BIOMASS_AERO_SC_hvd:(0.0133333333333333,1000)</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Fed-batch; 2L; 40 g/L after 24 h; pH 5.0; sucrose as substrate</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4607723/</t>
-        </is>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.005138585269748739</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1000</v>
-      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr">
         <is>
           <t>Rounded up trace element uptakes to account for contributions from seed cultures, until yields could be replicated</t>
@@ -1893,10 +1901,10 @@
         <v>242.44</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1141673721518181</v>
+        <v>0.1141673830273931</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2428831790311471</v>
+        <v>0.2428832021681798</v>
       </c>
       <c r="G21" t="n">
         <v>-0.332925</v>
@@ -1912,22 +1920,10 @@
           <t>media:reset;c_sources:EX_sucr_e;media:reset;c_sources:EX_sucr_e;EX_sucr_e:(-0.332925,1000);EX_k_e:(-0.1,1000);EX_nh4_e:(-0.09,1000);EX_ca2_e:(-0.002844,1000);EX_mg2_e:(-0.004689,1000);EX_pi_e:(-0.01,1000);EX_no3_e:(-0.003217,1000);EX_cl_e:(-0.00643,1000);EX_so4_e:(-0.002,1000);EX_h_e:(-1000,1000);EX_h2o_e:(-1000,1000);EX_btn_c:(-0.01,1000);EX_o2_e:(-26.25403530509562,1000);EX_co2_e:(0,1000);EX_thm_e:(-1000,1000);EX_ribflv_e:(-1000,1000);EX_nac_e:(-1000,1000);EX_pydxn_e:(-1000,1000);EX_fol_e:(-1000,1000);EX_pnto__R_e:(-1000,1000);EX_4abz_e:(-1000,1000);EX_cu2_e:(-1000,1000);EX_fe2_e:(-1000,1000);EX_fe3_e:(-1000,1000);EX_mn2_e:(-1000,1000);EX_na1_e:(-1000,1000);EX_ni2_e:(-1000,1000);EX_zn2_e:(-1000,1000);EX_cobalt2_e:(-1000,1000);EX_inost_e:(-1000,1000);EX_asp__L_e:(-0.00046,1000);EX_thr__L_e:(-0.000276,1000);EX_ser__L_e:(-0.000334,1000);EX_glu__L_e:(-0.001013,1000);EX_gly_e:(-0.000747,1000);EX_tyr__L_e:(-0.000094,1000);EX_lys__L_e:(-0.000216,1000);EX_arg__L_e:(-0.000236,1000);EX_trp__L_e:(-0.000023,1000);EX_chol_e:(-0.090319,1000);EX_ala__L_e:(-0.001179,1000);EX_val__L_e:(-0.000463,1000);EX_met__L_e:(-0.000132,1000);EX_ile__L_e:(-0.000253,1000);EX_leu__L_e:(-0.000709,1000);EX_phe__L_e:(-0.000229,1000);EX_his__L_e:(-0.000205,1000);EX_pro__L_e:(-0.000761,1000);BIOMASS_AERO_SC_hvd:(0.0133333333333333,1000)</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Fed-batch; 2L; 40 g/L after 24 h; pH 5.0; sucrose as substrate</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4607723/</t>
-        </is>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.000753211910791016</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1000</v>
-      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
@@ -1968,10 +1964,18 @@
       <c r="G22" t="n">
         <v>-5.547262026771105</v>
       </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>1.443972089043094</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.06255555992480406</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-13.20999999959833</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.1256291360804438</v>
+      </c>
       <c r="L22" t="n">
         <v>0.13</v>
       </c>
@@ -1983,15 +1987,27 @@
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="n">
+        <v>-13.20999999959833</v>
+      </c>
       <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
       <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
+      <c r="AA22" t="n">
+        <v>1.443972089043094</v>
+      </c>
       <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
+      <c r="AC22" t="n">
+        <v>0.06255555992480406</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2022,16 +2038,16 @@
         <v>-13.21</v>
       </c>
       <c r="H23" t="n">
-        <v>0.203124484755227</v>
+        <v>0.203122931650815</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02811475629406541</v>
+        <v>0.02811466650697837</v>
       </c>
       <c r="J23" t="n">
-        <v>-13.20999999943978</v>
+        <v>-13.20994118200501</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0808892261610451</v>
+        <v>0.08088896783378399</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -2042,26 +2058,26 @@
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="n">
-        <v>0.203124484755227</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="n">
-        <v>-13.20999999943978</v>
+        <v>-13.20994118200501</v>
       </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="n">
-        <v>0.02811475629406541</v>
+        <v>0</v>
       </c>
       <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
+      <c r="AA23" t="n">
+        <v>0.203122931650815</v>
       </c>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>0.02811466650697837</v>
       </c>
     </row>
     <row r="24">
@@ -2084,25 +2100,25 @@
         <v>228.24</v>
       </c>
       <c r="E24" t="n">
-        <v>1.465955758989043</v>
+        <v>1.465955759336204</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3345898405304398</v>
+        <v>0.3345898406096754</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.550743282537624</v>
+        <v>-5.550743282537632</v>
       </c>
       <c r="H24" t="n">
-        <v>0.400094572886379</v>
+        <v>0.400094572755716</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03837097819097909</v>
+        <v>0.03837097818393927</v>
       </c>
       <c r="J24" t="n">
-        <v>-13.20999999943007</v>
+        <v>-13.20999999753955</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1146806434114913</v>
+        <v>0.1146806433632931</v>
       </c>
       <c r="L24" t="n">
         <v>0.0002</v>
@@ -2115,26 +2131,26 @@
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="n">
-        <v>0.400094572886379</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="n">
-        <v>-13.20999999943007</v>
+        <v>-13.20999999753955</v>
       </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="n">
-        <v>0.03837097819097909</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
+      <c r="AA24" t="n">
+        <v>0.400094572755716</v>
       </c>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>0.03837097818393927</v>
       </c>
     </row>
     <row r="25">
@@ -2157,25 +2173,25 @@
         <v>246.3</v>
       </c>
       <c r="E25" t="n">
-        <v>1.116107087963434</v>
+        <v>1.116107088093233</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2748980962125347</v>
+        <v>0.2748980962445054</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.550726324289706</v>
+        <v>-5.550726324289684</v>
       </c>
       <c r="H25" t="n">
-        <v>0.273747157079806</v>
+        <v>0.273745159979584</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02833108292880386</v>
+        <v>0.02833099703696565</v>
       </c>
       <c r="J25" t="n">
-        <v>-13.20997888685302</v>
+        <v>-13.20992256327414</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1030603096898131</v>
+        <v>0.1030599972280889</v>
       </c>
       <c r="L25" t="n">
         <v>0.003</v>
@@ -2188,26 +2204,26 @@
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="n">
-        <v>0.273747157079806</v>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="n">
-        <v>-13.20997888685302</v>
+        <v>-13.20992256327414</v>
       </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="n">
-        <v>0.02833108292880386</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
+      <c r="AA25" t="n">
+        <v>0.273745159979584</v>
       </c>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>0.02833099703696565</v>
       </c>
     </row>
     <row r="26">
@@ -2230,18 +2246,26 @@
         <v>174.15</v>
       </c>
       <c r="E26" t="n">
-        <v>9.72565218736074</v>
+        <v>9.725652187360716</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7116896739912099</v>
+        <v>0.7116896739912081</v>
       </c>
       <c r="G26" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>1.89452612147396</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.1386348855646657</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-13.20999999728745</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.1947968203433262</v>
+      </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
@@ -2251,15 +2275,27 @@
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
+      <c r="W26" t="n">
+        <v>-13.20999999728745</v>
+      </c>
       <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
       <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
+      <c r="AA26" t="n">
+        <v>1.89452612147396</v>
+      </c>
       <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
+      <c r="AC26" t="n">
+        <v>0.1386348855646657</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2281,10 +2317,10 @@
         <v>270.5</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1013955884731691</v>
+        <v>0.1013955788142346</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2406786063347258</v>
+        <v>0.2406785834077036</v>
       </c>
       <c r="G27" t="n">
         <v>-0.332925</v>
@@ -2300,22 +2336,10 @@
           <t>media:reset;c_sources:EX_sucr_e;media:reset;c_sources:EX_sucr_e;EX_sucr_e:(-0.332925,1000);EX_k_e:(-0.1,1000);EX_nh4_e:(-0.09,1000);EX_ca2_e:(-0.002844,1000);EX_mg2_e:(-0.004689,1000);EX_pi_e:(-0.01,1000);EX_no3_e:(-0.003217,1000);EX_cl_e:(-0.00643,1000);EX_so4_e:(-0.002,1000);EX_h_e:(-1000,1000);EX_h2o_e:(-1000,1000);EX_btn_c:(-0.01,1000);EX_o2_e:(-26.25403530509562,1000);EX_co2_e:(0,1000);EX_thm_e:(-1000,1000);EX_ribflv_e:(-1000,1000);EX_nac_e:(-1000,1000);EX_pydxn_e:(-1000,1000);EX_fol_e:(-1000,1000);EX_pnto__R_e:(-1000,1000);EX_4abz_e:(-1000,1000);EX_cu2_e:(-1000,1000);EX_fe2_e:(-1000,1000);EX_fe3_e:(-1000,1000);EX_mn2_e:(-1000,1000);EX_na1_e:(-1000,1000);EX_ni2_e:(-1000,1000);EX_zn2_e:(-1000,1000);EX_cobalt2_e:(-1000,1000);EX_inost_e:(-1000,1000);EX_asp__L_e:(-0.00046,1000);EX_thr__L_e:(-0.000276,1000);EX_ser__L_e:(-0.000334,1000);EX_glu__L_e:(-0.001013,1000);EX_gly_e:(-0.000747,1000);EX_tyr__L_e:(-0.000094,1000);EX_lys__L_e:(-0.000216,1000);EX_arg__L_e:(-0.000236,1000);EX_trp__L_e:(-0.000023,1000);EX_chol_e:(-0.090319,1000);EX_ala__L_e:(-0.001179,1000);EX_val__L_e:(-0.000463,1000);EX_met__L_e:(-0.000132,1000);EX_ile__L_e:(-0.000253,1000);EX_leu__L_e:(-0.000709,1000);EX_phe__L_e:(-0.000229,1000);EX_his__L_e:(-0.000205,1000);EX_pro__L_e:(-0.000761,1000);BIOMASS_AERO_SC_hvd:(0.0133333333333333,1000)</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Fed-batch; 2L; 40 g/L after 24 h; pH 5.0; sucrose as substrate</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4607723/</t>
-        </is>
-      </c>
-      <c r="Q27" t="n">
-        <v>0.001125130595515551</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1000</v>
-      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
@@ -2348,18 +2372,26 @@
         <v>104.15</v>
       </c>
       <c r="E28" t="n">
-        <v>2.491549780251542</v>
+        <v>2.491549795165277</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2594955561592948</v>
+        <v>0.2594955577125651</v>
       </c>
       <c r="G28" t="n">
-        <v>-5.55073108000964</v>
-      </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>-5.550731080009622</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.368184557281015</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.05987594907446837</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-13.20999999728675</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.2307397845353139</v>
+      </c>
       <c r="L28" t="n">
         <v>0.001</v>
       </c>
@@ -2371,15 +2403,27 @@
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
+      <c r="W28" t="n">
+        <v>-13.20999999728675</v>
+      </c>
       <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
       <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
+      <c r="AA28" t="n">
+        <v>1.368184557281015</v>
+      </c>
       <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
+      <c r="AC28" t="n">
+        <v>0.05987594907446837</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2410,16 +2454,16 @@
         <v>-2.20113372715757</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01066598096386</v>
+        <v>0.010665980959912</v>
       </c>
       <c r="I29" t="n">
-        <v>0.02217130388207889</v>
+        <v>0.02217130386671334</v>
       </c>
       <c r="J29" t="n">
-        <v>-2.2011337264132</v>
+        <v>-2.201133727123922</v>
       </c>
       <c r="K29" t="n">
-        <v>0.08151781355949614</v>
+        <v>0.0815178135030012</v>
       </c>
       <c r="L29" t="n">
         <v>0.14</v>
@@ -2430,40 +2474,32 @@
           <t>c_sources:EX_glc__D_e;BIOMASS_AERO_SC_hvd:(0.009615384615,0.14);EX_glc__D_e:(-2.20113372715757,1000);EX_nh4_e:(-0.181824845165991,1000);EX_o2_e:(-26.25403530509562,1000)</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>Strain CBS 14; minimal media; N limitation; max growth of 0.14/h; sugar went from 40.8 ± 0.3 to 3.19 ± 0.81 g/l (cultivated in 0.5 l)</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>https://link.springer.com/article/10.1186/s13068-019-1478-8</t>
-        </is>
-      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="n">
-        <v>0.01066598096386</v>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="n">
-        <v>-2.2011337264132</v>
+        <v>-2.201133727123922</v>
       </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="n">
-        <v>0.02217130388207889</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
+      <c r="AA29" t="n">
+        <v>0.010665980959912</v>
       </c>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>0.02217130386671334</v>
       </c>
     </row>
     <row r="30">
@@ -2486,10 +2522,10 @@
         <v>126.11004</v>
       </c>
       <c r="E30" t="n">
-        <v>0.007105612009006309</v>
+        <v>0.007105612999394498</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06718413973059086</v>
+        <v>0.06718414909479177</v>
       </c>
       <c r="G30" t="n">
         <v>-0.078476895921783</v>
@@ -2505,22 +2541,10 @@
           <t>c_sources:EX_xyl__D_e,EX_glc__D_e;EX_xyl__D_e:(-0.0266525306904169,-0.0266525306904169);EX_glc__D_e:(-0.0518243652313661,-0.0518243652313661);BIOMASS_AERO_SC_hvd:(0,0.0138888888888889);BiomassKim_e:(0,0);EX_btn_c:(0,0.02);ATPM_c:(0,1000);EX_4abz_e:(-1000,1000);EX_fe3_e:(-1000,1000);EX_fol_e:(-1000,1000);EX_inost_e:(-1000,1000);EX_nac_e:(-1000,1000);EX_pnto__R_e:(-1000,1000);EX_pydxn_e:(-1000,1000);EX_ribflv_e:(-1000,1000);EX_thm_e:(-1000,1000);EX_o2_e:(-26.25403530509562,1000)</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Strain IFO0880 with genetic modifications made to allow TAL production; grown using glucose. UB is theoretical maximum yield, while LB is observed yield at 95 h. Use biomass from RT_IFO0880 model (Kim et al. (2020)), to provide data based on similar conditions.</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>https://analyticalsciencejournals.onlinelibrary.wiley.com/doi/full/10.1002/bit.28159</t>
-        </is>
-      </c>
-      <c r="Q30" t="n">
-        <v>0.01113301928416149</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0.01278064790097615</v>
-      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
